--- a/pub/Management/WBSbyArea/1.8_Content_Mgmt_WBS_draft.xlsx
+++ b/pub/Management/WBSbyArea/1.8_Content_Mgmt_WBS_draft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="-75" windowWidth="15480" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+  <si>
+    <t>Engel, Document Area Coordinators.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Identify owners for each documentation area</t>
+  </si>
+  <si>
+    <t>InCharge</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue to help document area coordinators with the infrastructure and delivery of documents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run weekly meetings to review, plan and discuss documentation activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide effective navigation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier3 : 22 Documents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User : 17 Documents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage : 69 Documents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engel, Document Area Coordinators.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute Element : 68 Documents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integration : 25 Documents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security : 40 Documents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual Organizations : 23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed from biweekly to weekly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>as part of the weekly telecons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done for the purpose of Document Area Coordinators.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I need some support here, Tim is most knowledgable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a dedicated multicore system where the Twiki data is provided on a solid state disk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the sense that documentation issues to be discussed prior a software release</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Analytics, Document Ratings, User Comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide Collaborative Document Rating for Twiki</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cartwright</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migrate Twiki to dedicated hardware</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get all Documentation into new process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integrate Document Release Process into OSG Software Release Process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engel, Thapa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8.1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8.1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide Training for Document Area Coordinators</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Evolve standards and templates for documents</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,120 +192,125 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Content Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Engel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WBS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implement an effective search for Documentation - is this complete at the end of FY10?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Participate in providing plan for new content management infrastructure. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Content Management Infrastructure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff and Contributor Coordination and Delivery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8.1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iwona to own CE, Suchandra to own Integration</t>
+  </si>
+  <si>
+    <t>Complete testing an effective "user" search for Documentation</t>
+  </si>
+  <si>
+    <t>Participate planning support for new content management infrastructure for OSG Prime</t>
+  </si>
+  <si>
+    <t>Complete Review and Test of Documentation under Content Mgmt Control, Provide Release</t>
   </si>
   <si>
     <t>Engel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content Management Infrastructure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.3.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.3.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.3.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Staff and Contributor Coordination and Delivery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.3.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.1.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mambelli</t>
+  </si>
+  <si>
+    <t>Bockelman</t>
+  </si>
+  <si>
+    <t>Levshina, Hesselroth</t>
+  </si>
+  <si>
+    <t>Sakrejda</t>
+  </si>
+  <si>
+    <t>Thapa</t>
+  </si>
+  <si>
+    <t>Barlow</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Evaluate Documentation Imrovements</t>
   </si>
   <si>
     <t>1.8.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manage relationships &amp; raise issues with the ET when necessary</t>
-  </si>
-  <si>
-    <t>Engel, Document Area Coordinators.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>Identify owners for each documentation area</t>
-  </si>
-  <si>
-    <t>Get all Documentation into new process</t>
-  </si>
-  <si>
-    <t>TaskName</t>
-  </si>
-  <si>
-    <t>InCharge</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>Engel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run biweekly meetings to review and plan and discuss documentation activities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continue to help document area coordinators with the infrastructure and delivery of documents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8.2.1</t>
+  </si>
+  <si>
+    <t>1.8.2.2</t>
+  </si>
+  <si>
+    <t>1.8.2.3</t>
+  </si>
+  <si>
+    <t>1.8.2.4</t>
+  </si>
+  <si>
+    <t>1.8.2.5</t>
+  </si>
+  <si>
+    <t>1.8.2.6</t>
+  </si>
+  <si>
+    <t>1.8.2.7</t>
+  </si>
+  <si>
+    <t>1.8.2.9</t>
+  </si>
+  <si>
+    <t>1.8.2.8</t>
+  </si>
+  <si>
+    <t>1.8.2.8.1</t>
+  </si>
+  <si>
+    <t>1.8.2.8.2</t>
+  </si>
+  <si>
+    <t>1.8.2.8.3</t>
+  </si>
+  <si>
+    <t>1.8.2.8.4</t>
+  </si>
+  <si>
+    <t>1.8.2.8.5</t>
+  </si>
+  <si>
+    <t>1.8.2.8.6</t>
+  </si>
+  <si>
+    <t>1.8.2.8.7</t>
+  </si>
+  <si>
+    <t>1.8.2.10</t>
   </si>
 </sst>
 </file>
@@ -170,12 +334,24 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,14 +366,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,204 +728,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" s="15">
         <v>38990</v>
       </c>
-      <c r="E2" s="2">
-        <v>39355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E2" s="15">
+        <v>39354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2">
-        <v>38990</v>
-      </c>
-      <c r="E4" s="2">
-        <v>39355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>38990</v>
       </c>
       <c r="E5" s="2">
-        <v>39355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>39354</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>38990</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38990</v>
+      </c>
+      <c r="E7" s="2">
+        <v>39021</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
         <v>38990</v>
       </c>
-      <c r="E9" s="2">
-        <v>39355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
+      <c r="E8" s="2">
+        <v>39354</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>38990</v>
       </c>
       <c r="E11" s="2">
-        <v>39082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.5">
+        <v>39354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
         <v>38990</v>
       </c>
-      <c r="E12" s="3">
-        <v>39082</v>
+      <c r="E12" s="2">
+        <v>39065</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>38990</v>
+      </c>
+      <c r="E13" s="2">
+        <v>39172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>38990</v>
+      </c>
+      <c r="E14" s="3">
+        <v>39127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3">
+        <v>38990</v>
+      </c>
+      <c r="E15" s="3">
+        <v>39096</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3">
+        <v>38990</v>
+      </c>
+      <c r="E16" s="3">
+        <v>39172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3">
+        <v>38990</v>
+      </c>
+      <c r="E17" s="3">
+        <v>39051</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3">
+        <v>38990</v>
+      </c>
+      <c r="E18" s="3">
+        <v>39172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3">
+        <v>38960</v>
+      </c>
+      <c r="E19" s="3">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3">
+        <v>38960</v>
+      </c>
+      <c r="E20" s="3">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3">
+        <v>38960</v>
+      </c>
+      <c r="E21" s="3">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3">
+        <v>38960</v>
+      </c>
+      <c r="E22" s="3">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3">
+        <v>38960</v>
+      </c>
+      <c r="E23" s="3">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3">
+        <v>38960</v>
+      </c>
+      <c r="E24" s="3">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3">
+        <v>38960</v>
+      </c>
+      <c r="E25" s="3">
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25.5">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3">
+        <v>39172</v>
+      </c>
+      <c r="E26" s="2">
+        <v>39354</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3">
+        <v>38807</v>
+      </c>
+      <c r="E27" s="2">
+        <v>39354</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
